--- a/Seth/test.xlsx
+++ b/Seth/test.xlsx
@@ -378,78 +378,78 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s"/>
-      <c r="B1" t="s"/>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
-      <c r="E1" t="s"/>
+      <c t="s" r="A1"/>
+      <c t="s" r="B1"/>
+      <c t="s" r="C1"/>
+      <c t="s" r="D1"/>
+      <c t="s" r="E1"/>
     </row>
     <row r="2">
-      <c r="A2" t="s"/>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
+      <c t="s" r="A2"/>
+      <c t="s" r="B2"/>
+      <c t="s" r="C2"/>
+      <c t="s" r="D2"/>
+      <c t="s" r="E2"/>
     </row>
     <row r="3">
-      <c r="A3" t="s"/>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
+      <c t="s" r="A3"/>
+      <c t="s" r="B3"/>
+      <c t="s" r="C3"/>
+      <c t="s" r="D3"/>
+      <c t="s" r="E3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s"/>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
+      <c t="s" r="A4"/>
+      <c t="s" r="B4"/>
+      <c t="s" r="C4"/>
+      <c t="s" r="D4"/>
+      <c t="s" r="E4"/>
     </row>
     <row r="5">
-      <c r="A5" t="s"/>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
+      <c t="s" r="A5"/>
+      <c t="s" r="B5"/>
+      <c t="s" r="C5"/>
+      <c t="s" r="D5"/>
+      <c t="s" r="E5"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c t="s" r="A6">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c t="s" r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c t="s" r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
+      <c t="s" r="D6"/>
+      <c t="s" r="E6"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c t="s" r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c t="s" r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
+      <c t="n" r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
+      <c t="s" r="D7"/>
+      <c t="s" r="E7"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c t="s" r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c t="s" r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
+      <c t="n" r="C8">
         <v>6</v>
       </c>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
+      <c t="s" r="D8"/>
+      <c t="s" r="E8"/>
     </row>
   </sheetData>
 </worksheet>
